--- a/docs/19520165_KeHoachDA1.xlsx
+++ b/docs/19520165_KeHoachDA1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218D5D04-6311-4E46-99D0-8A4D09F6B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AF2BE-3775-4D35-9A33-8487E791AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5244" yWindow="480" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,13 +93,7 @@
     <t>Thực nghiệm và đánh giá, khảo sát các tính năng của hệ thống.</t>
   </si>
   <si>
-    <t>31/12/2017</t>
-  </si>
-  <si>
     <t>Báo cáo đồ án môn học 1</t>
-  </si>
-  <si>
-    <t>01-14/01/2018</t>
   </si>
   <si>
     <t>20/9/2021</t>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>8 + 9</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>01-14/01/2022</t>
   </si>
 </sst>
 </file>
@@ -777,18 +777,6 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -823,6 +811,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1193,13 +1193,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="A1" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1208,13 +1208,13 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
@@ -1223,11 +1223,11 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
@@ -1236,13 +1236,13 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
+      <c r="A4" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
@@ -1251,11 +1251,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -1264,11 +1264,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -1277,13 +1277,13 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
@@ -1314,13 +1314,13 @@
     <row r="9" spans="1:11" ht="38.4" x14ac:dyDescent="0.35">
       <c r="A9" s="61"/>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="31"/>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="10" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61"/>
-      <c r="B10" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="67"/>
+      <c r="B10" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="79"/>
       <c r="E10" s="81"/>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
@@ -1348,9 +1348,9 @@
     </row>
     <row r="11" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="61"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="82"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
@@ -1365,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="58"/>
@@ -1382,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="59"/>
@@ -1395,14 +1395,14 @@
     </row>
     <row r="14" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="61"/>
-      <c r="B14" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="52"/>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="15" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="52"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
@@ -1425,11 +1425,11 @@
     </row>
     <row r="16" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61"/>
-      <c r="B16" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>21</v>
+      <c r="B16" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="59"/>
@@ -1442,8 +1442,8 @@
     </row>
     <row r="17" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="61"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="60"/>
       <c r="E17" s="59"/>
       <c r="F17" s="20"/>
@@ -1455,14 +1455,14 @@
     </row>
     <row r="18" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="61"/>
-      <c r="B18" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="C18" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="20"/>
       <c r="G18" s="46"/>
       <c r="H18" s="47"/>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="61"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="51"/>
       <c r="G19" s="44"/>
       <c r="H19" s="49"/>
@@ -1520,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="24"/>
@@ -1529,10 +1529,10 @@
       <c r="A23" s="61"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="24"/>
@@ -1547,34 +1547,34 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1608,6 +1608,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A26:E29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
@@ -1624,9 +1627,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1634,6 +1634,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD3CF939A1FFCA4AACFD02C563266947" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eead358780cb7bc0b7c78a34dfabd253">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4cef747c-45bf-4978-9c48-8036d51767c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="471127ef34b13197090d3d7709944b47" ns2:_="">
     <xsd:import namespace="4cef747c-45bf-4978-9c48-8036d51767c7"/>
@@ -1765,15 +1774,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1781,6 +1781,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F17F5D4-70D0-44D6-91BA-45366A81336D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09553093-2543-4A5E-B46D-62ABF3D59BAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1798,14 +1806,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F17F5D4-70D0-44D6-91BA-45366A81336D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48479BEB-2355-4525-B066-0010828254F3}">
   <ds:schemaRefs>

--- a/docs/19520165_KeHoachDA1.xlsx
+++ b/docs/19520165_KeHoachDA1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AF2BE-3775-4D35-9A33-8487E791AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54C9996-F667-43EE-8BD4-623123E9A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Tuần</t>
   </si>
@@ -195,9 +196,6 @@
     <t>Triển khai giải thuật nhận diện bước chân cùng giải thuật ước lượng độ dài bước lên MCU.</t>
   </si>
   <si>
-    <t>Triển khai các phương pháp giúp ổn định giá trị cảm biển, ổn định mô hình máy học, tối ưu hóa hệ thống, tối ưu năng lượng.</t>
-  </si>
-  <si>
     <t>2 + 3</t>
   </si>
   <si>
@@ -214,6 +212,15 @@
   </si>
   <si>
     <t>01-14/01/2022</t>
+  </si>
+  <si>
+    <t>Triển khai Hệ điều hành thời gian thực FreeRTOS cho hệ thống</t>
+  </si>
+  <si>
+    <t>Chuẩn bị tài liệu, báo cáo.</t>
+  </si>
+  <si>
+    <t>Báo cáo.</t>
   </si>
 </sst>
 </file>
@@ -291,7 +298,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +322,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -607,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -777,6 +790,18 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -813,24 +838,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1172,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1193,13 +1208,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1208,13 +1223,13 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
@@ -1223,11 +1238,11 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
@@ -1236,13 +1251,13 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
@@ -1251,11 +1266,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -1264,11 +1279,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -1277,13 +1292,13 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
@@ -1331,13 +1346,13 @@
     </row>
     <row r="10" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61"/>
-      <c r="B10" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="77" t="s">
+      <c r="B10" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="81"/>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
@@ -1348,9 +1363,9 @@
     </row>
     <row r="11" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="61"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="82"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
@@ -1395,14 +1410,14 @@
     </row>
     <row r="14" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="61"/>
-      <c r="B14" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="77" t="s">
+      <c r="B14" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="52"/>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
@@ -1412,10 +1427,10 @@
     </row>
     <row r="15" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="52"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
@@ -1425,10 +1440,10 @@
     </row>
     <row r="16" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61"/>
-      <c r="B16" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="60"/>
@@ -1442,8 +1457,8 @@
     </row>
     <row r="17" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="61"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="60"/>
       <c r="E17" s="59"/>
       <c r="F17" s="20"/>
@@ -1455,14 +1470,14 @@
     </row>
     <row r="18" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="61"/>
-      <c r="B18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
+      <c r="B18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="20"/>
       <c r="G18" s="46"/>
       <c r="H18" s="47"/>
@@ -1472,10 +1487,10 @@
     </row>
     <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="61"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="51"/>
       <c r="G19" s="44"/>
       <c r="H19" s="49"/>
@@ -1520,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="24"/>
@@ -1532,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="24"/>
@@ -1547,34 +1562,34 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1608,6 +1623,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="B18:B19"/>
@@ -1624,25 +1642,143 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C5EADC-BDAE-4405-BDF1-8667F1CDFCD9}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="83">
+        <v>44459</v>
+      </c>
+      <c r="C1" s="83">
+        <v>44466</v>
+      </c>
+      <c r="D1" s="83">
+        <v>44473</v>
+      </c>
+      <c r="E1" s="83">
+        <v>44480</v>
+      </c>
+      <c r="F1" s="83">
+        <v>44487</v>
+      </c>
+      <c r="G1" s="83">
+        <v>44494</v>
+      </c>
+      <c r="H1" s="83">
+        <v>44501</v>
+      </c>
+      <c r="I1" s="83">
+        <v>44508</v>
+      </c>
+      <c r="J1" s="83">
+        <v>44515</v>
+      </c>
+      <c r="K1" s="83">
+        <v>44522</v>
+      </c>
+      <c r="L1" s="83">
+        <v>44529</v>
+      </c>
+      <c r="M1" s="83">
+        <v>44536</v>
+      </c>
+      <c r="N1" s="83">
+        <v>44543</v>
+      </c>
+      <c r="O1" s="83">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="84"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="84"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="84"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="84"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD3CF939A1FFCA4AACFD02C563266947" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eead358780cb7bc0b7c78a34dfabd253">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4cef747c-45bf-4978-9c48-8036d51767c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="471127ef34b13197090d3d7709944b47" ns2:_="">
     <xsd:import namespace="4cef747c-45bf-4978-9c48-8036d51767c7"/>
@@ -1774,6 +1910,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1781,14 +1926,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F17F5D4-70D0-44D6-91BA-45366A81336D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09553093-2543-4A5E-B46D-62ABF3D59BAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1806,6 +1943,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F17F5D4-70D0-44D6-91BA-45366A81336D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48479BEB-2355-4525-B066-0010828254F3}">
   <ds:schemaRefs>
